--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.36285260156874</v>
+        <v>5.485012999999999</v>
       </c>
       <c r="H2">
-        <v>5.36285260156874</v>
+        <v>16.455039</v>
       </c>
       <c r="I2">
-        <v>0.2764662701778529</v>
+        <v>0.2716272065325074</v>
       </c>
       <c r="J2">
-        <v>0.2764662701778529</v>
+        <v>0.2716272065325074</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.221803199990388</v>
+        <v>0.2315733333333333</v>
       </c>
       <c r="N2">
-        <v>0.221803199990388</v>
+        <v>0.69472</v>
       </c>
       <c r="O2">
-        <v>0.2780507033262193</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="P2">
-        <v>0.2780507033262193</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="Q2">
-        <v>1.189497868104724</v>
+        <v>1.270182743786666</v>
       </c>
       <c r="R2">
-        <v>1.189497868104724</v>
+        <v>11.43164469408</v>
       </c>
       <c r="S2">
-        <v>0.07687164086892857</v>
+        <v>0.06440493619306087</v>
       </c>
       <c r="T2">
-        <v>0.07687164086892857</v>
+        <v>0.06440493619306087</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,57 +593,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.36285260156874</v>
+        <v>5.485012999999999</v>
       </c>
       <c r="H3">
-        <v>5.36285260156874</v>
+        <v>16.455039</v>
       </c>
       <c r="I3">
-        <v>0.2764662701778529</v>
+        <v>0.2716272065325074</v>
       </c>
       <c r="J3">
-        <v>0.2764662701778529</v>
+        <v>0.2716272065325074</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.575904546607758</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N3">
-        <v>0.575904546607758</v>
+        <v>2.160286</v>
       </c>
       <c r="O3">
-        <v>0.7219492966737807</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="P3">
-        <v>0.7219492966737807</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="Q3">
-        <v>3.088491196030681</v>
+        <v>3.949732264572667</v>
       </c>
       <c r="R3">
-        <v>3.088491196030681</v>
+        <v>35.547590381154</v>
       </c>
       <c r="S3">
-        <v>0.1995946293089244</v>
+        <v>0.2002721700667358</v>
       </c>
       <c r="T3">
-        <v>0.1995946293089244</v>
+        <v>0.2002721700667358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.24981502572528</v>
+        <v>5.485012999999999</v>
       </c>
       <c r="H4">
-        <v>6.24981502572528</v>
+        <v>16.455039</v>
       </c>
       <c r="I4">
-        <v>0.3221910385824022</v>
+        <v>0.2716272065325074</v>
       </c>
       <c r="J4">
-        <v>0.3221910385824022</v>
+        <v>0.2716272065325074</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.221803199990388</v>
+        <v>0.02498966666666666</v>
       </c>
       <c r="N4">
-        <v>0.221803199990388</v>
+        <v>0.07496899999999999</v>
       </c>
       <c r="O4">
-        <v>0.2780507033262193</v>
+        <v>0.02558690773812063</v>
       </c>
       <c r="P4">
-        <v>0.2780507033262193</v>
+        <v>0.02558690773812063</v>
       </c>
       <c r="Q4">
-        <v>1.386228972053876</v>
+        <v>0.1370686465323333</v>
       </c>
       <c r="R4">
-        <v>1.386228972053876</v>
+        <v>1.233617818791</v>
       </c>
       <c r="S4">
-        <v>0.08958544488324199</v>
+        <v>0.006950100272710703</v>
       </c>
       <c r="T4">
-        <v>0.08958544488324199</v>
+        <v>0.006950100272710704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.24981502572528</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H5">
-        <v>6.24981502572528</v>
+        <v>19.628437</v>
       </c>
       <c r="I5">
-        <v>0.3221910385824022</v>
+        <v>0.3240112351547335</v>
       </c>
       <c r="J5">
-        <v>0.3221910385824022</v>
+        <v>0.3240112351547334</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.575904546607758</v>
+        <v>0.2315733333333333</v>
       </c>
       <c r="N5">
-        <v>0.575904546607758</v>
+        <v>0.69472</v>
       </c>
       <c r="O5">
-        <v>0.7219492966737807</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="P5">
-        <v>0.7219492966737807</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="Q5">
-        <v>3.599296888772671</v>
+        <v>1.515140861404444</v>
       </c>
       <c r="R5">
-        <v>3.599296888772671</v>
+        <v>13.63626775264</v>
       </c>
       <c r="S5">
-        <v>0.2326055936991602</v>
+        <v>0.07682559929238182</v>
       </c>
       <c r="T5">
-        <v>0.2326055936991602</v>
+        <v>0.07682559929238181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.78216094767115</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H6">
-        <v>2.78216094767115</v>
+        <v>19.628437</v>
       </c>
       <c r="I6">
-        <v>0.1434262168630414</v>
+        <v>0.3240112351547335</v>
       </c>
       <c r="J6">
-        <v>0.1434262168630414</v>
+        <v>0.3240112351547334</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.221803199990388</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N6">
-        <v>0.221803199990388</v>
+        <v>2.160286</v>
       </c>
       <c r="O6">
-        <v>0.2780507033262193</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="P6">
-        <v>0.2780507033262193</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="Q6">
-        <v>0.6170922010817516</v>
+        <v>4.711448628109111</v>
       </c>
       <c r="R6">
-        <v>0.6170922010817516</v>
+        <v>42.403037652982</v>
       </c>
       <c r="S6">
-        <v>0.0398797604741875</v>
+        <v>0.238895190282333</v>
       </c>
       <c r="T6">
-        <v>0.0398797604741875</v>
+        <v>0.2388951902823329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.78216094767115</v>
+        <v>6.542812333333333</v>
       </c>
       <c r="H7">
-        <v>2.78216094767115</v>
+        <v>19.628437</v>
       </c>
       <c r="I7">
-        <v>0.1434262168630414</v>
+        <v>0.3240112351547335</v>
       </c>
       <c r="J7">
-        <v>0.1434262168630414</v>
+        <v>0.3240112351547334</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.575904546607758</v>
+        <v>0.02498966666666666</v>
       </c>
       <c r="N7">
-        <v>0.575904546607758</v>
+        <v>0.07496899999999999</v>
       </c>
       <c r="O7">
-        <v>0.7219492966737807</v>
+        <v>0.02558690773812063</v>
       </c>
       <c r="P7">
-        <v>0.7219492966737807</v>
+        <v>0.02558690773812063</v>
       </c>
       <c r="Q7">
-        <v>1.602259139158364</v>
+        <v>0.1635026992725555</v>
       </c>
       <c r="R7">
-        <v>1.602259139158364</v>
+        <v>1.471524293453</v>
       </c>
       <c r="S7">
-        <v>0.1035464563888539</v>
+        <v>0.008290445580018671</v>
       </c>
       <c r="T7">
-        <v>0.1035464563888539</v>
+        <v>0.008290445580018671</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.00302635366238</v>
+        <v>2.959658333333334</v>
       </c>
       <c r="H8">
-        <v>5.00302635366238</v>
+        <v>8.878975000000001</v>
       </c>
       <c r="I8">
-        <v>0.2579164743767035</v>
+        <v>0.1465673327253718</v>
       </c>
       <c r="J8">
-        <v>0.2579164743767035</v>
+        <v>0.1465673327253718</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.221803199990388</v>
+        <v>0.2315733333333333</v>
       </c>
       <c r="N8">
-        <v>0.221803199990388</v>
+        <v>0.69472</v>
       </c>
       <c r="O8">
-        <v>0.2780507033262193</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="P8">
-        <v>0.2780507033262193</v>
+        <v>0.2371078251520917</v>
       </c>
       <c r="Q8">
-        <v>1.109687254878558</v>
+        <v>0.6853779457777778</v>
       </c>
       <c r="R8">
-        <v>1.109687254878558</v>
+        <v>6.168401512</v>
       </c>
       <c r="S8">
-        <v>0.07171385709986122</v>
+        <v>0.03475226150085592</v>
       </c>
       <c r="T8">
-        <v>0.07171385709986122</v>
+        <v>0.03475226150085592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,300 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.00302635366238</v>
+        <v>2.959658333333334</v>
       </c>
       <c r="H9">
-        <v>5.00302635366238</v>
+        <v>8.878975000000001</v>
       </c>
       <c r="I9">
-        <v>0.2579164743767035</v>
+        <v>0.1465673327253718</v>
       </c>
       <c r="J9">
-        <v>0.2579164743767035</v>
+        <v>0.1465673327253718</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.575904546607758</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N9">
-        <v>0.575904546607758</v>
+        <v>2.160286</v>
       </c>
       <c r="O9">
-        <v>0.7219492966737807</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="P9">
-        <v>0.7219492966737807</v>
+        <v>0.7373052671097876</v>
       </c>
       <c r="Q9">
-        <v>2.881265623872598</v>
+        <v>2.131236154094445</v>
       </c>
       <c r="R9">
-        <v>2.881265623872598</v>
+        <v>19.18112538685</v>
       </c>
       <c r="S9">
-        <v>0.1862026172768423</v>
+        <v>0.1080648664046494</v>
       </c>
       <c r="T9">
-        <v>0.1862026172768423</v>
+        <v>0.1080648664046494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.959658333333334</v>
+      </c>
+      <c r="H10">
+        <v>8.878975000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.1465673327253718</v>
+      </c>
+      <c r="J10">
+        <v>0.1465673327253718</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02498966666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.07496899999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="P10">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="Q10">
+        <v>0.07396087519722222</v>
+      </c>
+      <c r="R10">
+        <v>0.665647876775</v>
+      </c>
+      <c r="S10">
+        <v>0.003750204819866517</v>
+      </c>
+      <c r="T10">
+        <v>0.003750204819866518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.205681333333334</v>
+      </c>
+      <c r="H11">
+        <v>15.617044</v>
+      </c>
+      <c r="I11">
+        <v>0.2577942255873873</v>
+      </c>
+      <c r="J11">
+        <v>0.2577942255873873</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2315733333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.69472</v>
+      </c>
+      <c r="O11">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="P11">
+        <v>0.2371078251520917</v>
+      </c>
+      <c r="Q11">
+        <v>1.205496978631111</v>
+      </c>
+      <c r="R11">
+        <v>10.84947280768</v>
+      </c>
+      <c r="S11">
+        <v>0.06112502816579311</v>
+      </c>
+      <c r="T11">
+        <v>0.06112502816579311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.205681333333334</v>
+      </c>
+      <c r="H12">
+        <v>15.617044</v>
+      </c>
+      <c r="I12">
+        <v>0.2577942255873873</v>
+      </c>
+      <c r="J12">
+        <v>0.2577942255873873</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N12">
+        <v>2.160286</v>
+      </c>
+      <c r="O12">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="P12">
+        <v>0.7373052671097876</v>
+      </c>
+      <c r="Q12">
+        <v>3.748586834953779</v>
+      </c>
+      <c r="R12">
+        <v>33.73728151458401</v>
+      </c>
+      <c r="S12">
+        <v>0.1900730403560694</v>
+      </c>
+      <c r="T12">
+        <v>0.1900730403560694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.205681333333334</v>
+      </c>
+      <c r="H13">
+        <v>15.617044</v>
+      </c>
+      <c r="I13">
+        <v>0.2577942255873873</v>
+      </c>
+      <c r="J13">
+        <v>0.2577942255873873</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.02498966666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.07496899999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="P13">
+        <v>0.02558690773812063</v>
+      </c>
+      <c r="Q13">
+        <v>0.1300882412928889</v>
+      </c>
+      <c r="R13">
+        <v>1.170794171636</v>
+      </c>
+      <c r="S13">
+        <v>0.006596157065524734</v>
+      </c>
+      <c r="T13">
+        <v>0.006596157065524735</v>
       </c>
     </row>
   </sheetData>
